--- a/data/trans_orig/P16B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE1967F-1548-422F-A94D-DF67298BBFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40973336-6DCA-421C-A7C9-75D482D6AF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0A18893-9037-4E70-A32F-32CA8D338BC5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62CA8839-CC91-4060-B4CB-C98DABC01376}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="207">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -115,13 +115,13 @@
     <t>93,1%</t>
   </si>
   <si>
-    <t>70,35%</t>
+    <t>69,46%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>77,61%</t>
+    <t>80,55%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -130,13 +130,13 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>29,65%</t>
+    <t>30,54%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>22,39%</t>
+    <t>19,45%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -145,10 +145,10 @@
     <t>75,1%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -157,19 +157,19 @@
     <t>90,2%</t>
   </si>
   <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -178,10 +178,10 @@
     <t>9,8%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -211,85 +211,85 @@
     <t>96,87%</t>
   </si>
   <si>
-    <t>84,92%</t>
+    <t>86,56%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>91,71%</t>
+    <t>92,91%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>91,11%</t>
+    <t>92,53%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>15,08%</t>
+    <t>13,44%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>8,29%</t>
+    <t>7,09%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>8,89%</t>
+    <t>7,47%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,19%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -346,13 +346,13 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>87,12%</t>
+    <t>84,07%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>91,69%</t>
+    <t>91,93%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -361,13 +361,13 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>12,88%</t>
+    <t>15,93%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>8,31%</t>
+    <t>8,07%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -376,16 +376,19 @@
     <t>91,8%</t>
   </si>
   <si>
-    <t>83,45%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -394,16 +397,19 @@
     <t>8,2%</t>
   </si>
   <si>
-    <t>16,55%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -412,19 +418,19 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -433,19 +439,19 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2015 (Tasa respuesta: 4,17%)</t>
@@ -454,40 +460,40 @@
     <t>94,44%</t>
   </si>
   <si>
-    <t>71,77%</t>
+    <t>76,08%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>76,02%</t>
+    <t>79,72%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>84,67%</t>
+    <t>83,98%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>28,23%</t>
+    <t>23,92%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>23,98%</t>
+    <t>20,28%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>96,7%</t>
@@ -496,10 +502,10 @@
     <t>98,72%</t>
   </si>
   <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>3,3%</t>
@@ -508,139 +514,151 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,8%</t>
+    <t>6,37%</t>
   </si>
   <si>
     <t>95,38%</t>
   </si>
   <si>
-    <t>76,86%</t>
+    <t>76,14%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>87,66%</t>
+    <t>87,72%</t>
   </si>
   <si>
     <t>95,9%</t>
   </si>
   <si>
-    <t>88,95%</t>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>23,14%</t>
+    <t>23,86%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>12,34%</t>
+    <t>12,28%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>11,05%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>81,84%</t>
+    <t>79,9%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>18,16%</t>
+    <t>20,1%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>92,56%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>7,44%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D58C313-DA99-428B-97F0-692FDF5E6364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13B80E6-4C44-4442-9E10-8D4996BC1904}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2115,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F5CA0-F7B1-412F-A08F-7DF6420A9280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB546951-DCBE-48AB-B330-5A6987F62741}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2880,7 +2898,7 @@
         <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -2889,13 +2907,13 @@
         <v>88171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,7 +2934,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2925,13 +2943,13 @@
         <v>4983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2940,13 +2958,13 @@
         <v>4983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,7 +3035,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3026,16 +3044,16 @@
         <v>176</v>
       </c>
       <c r="I19" s="7">
-        <v>187960</v>
+        <v>187959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>280</v>
@@ -3044,13 +3062,13 @@
         <v>302703</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,7 +3089,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3080,13 +3098,13 @@
         <v>6166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -3095,13 +3113,13 @@
         <v>6166</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,7 +3146,7 @@
         <v>182</v>
       </c>
       <c r="I21" s="7">
-        <v>194126</v>
+        <v>194125</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -3178,7 +3196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB08EB1-6F06-4E6B-AE0F-D612D07B5FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1E52AC-BBE6-4AAB-903C-EBDD547DDC64}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3195,7 +3213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3457,10 +3475,10 @@
         <v>16548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3472,10 +3490,10 @@
         <v>19845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3487,10 +3505,10 @@
         <v>36393</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3508,13 +3526,13 @@
         <v>974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3523,13 +3541,13 @@
         <v>905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3538,13 +3556,13 @@
         <v>1879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,7 +3633,7 @@
         <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3630,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3642,10 +3660,10 @@
         <v>87811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3669,7 +3687,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3684,7 +3702,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3693,13 +3711,13 @@
         <v>1135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,10 +3785,10 @@
         <v>21072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3782,10 +3800,10 @@
         <v>51879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3797,13 +3815,13 @@
         <v>72952</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3836,13 @@
         <v>1022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3833,13 +3851,13 @@
         <v>2095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3848,13 +3866,13 @@
         <v>3117</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3940,13 @@
         <v>30563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -3937,10 +3955,10 @@
         <v>48301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3952,13 +3970,13 @@
         <v>78865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3991,13 @@
         <v>3470</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3988,13 +4006,13 @@
         <v>2825</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4003,13 +4021,13 @@
         <v>6295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4095,13 @@
         <v>95612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -4092,13 +4110,13 @@
         <v>183737</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7">
         <v>263</v>
@@ -4107,13 +4125,13 @@
         <v>279349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4146,13 @@
         <v>6601</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4143,13 +4161,13 @@
         <v>5826</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4158,13 +4176,13 @@
         <v>12427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40973336-6DCA-421C-A7C9-75D482D6AF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35201F6-A54D-49BF-905F-5B6479132B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62CA8839-CC91-4060-B4CB-C98DABC01376}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E60BCB6F-B21D-4235-8BD3-9A1A3919B0AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="203">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -106,7 +106,7 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -115,13 +115,13 @@
     <t>93,1%</t>
   </si>
   <si>
-    <t>69,46%</t>
+    <t>71,43%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>80,55%</t>
+    <t>78,34%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -130,25 +130,25 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>30,54%</t>
+    <t>28,57%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>75,1%</t>
   </si>
   <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -157,7 +157,7 @@
     <t>90,2%</t>
   </si>
   <si>
-    <t>77,19%</t>
+    <t>77,45%</t>
   </si>
   <si>
     <t>96,99%</t>
@@ -166,10 +166,10 @@
     <t>24,9%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -181,10 +181,10 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -211,454 +211,442 @@
     <t>96,87%</t>
   </si>
   <si>
-    <t>86,56%</t>
+    <t>85,59%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para la alergia recetados en 2012 (Tasa respuesta: 4,4%)</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>97,8%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>7,47%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para la alergia recetados en 2012 (Tasa respuesta: 4,4%)</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para la alergia recetados en 2015 (Tasa respuesta: 4,17%)</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13B80E6-4C44-4442-9E10-8D4996BC1904}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BE2095-93FD-42CF-A609-F98E44B8FD6A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1832,7 +1820,7 @@
         <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1844,10 +1832,10 @@
         <v>78250</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1865,13 +1853,13 @@
         <v>882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1880,13 +1868,13 @@
         <v>881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1895,13 +1883,13 @@
         <v>1763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1957,13 @@
         <v>69528</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>126</v>
@@ -1984,10 +1972,10 @@
         <v>130438</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -1999,13 +1987,13 @@
         <v>199965</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2008,13 @@
         <v>6695</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2035,13 +2023,13 @@
         <v>1839</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2050,13 +2038,13 @@
         <v>8534</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,7 +2100,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2133,7 +2121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB546951-DCBE-48AB-B330-5A6987F62741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C26C0F-FABF-4A6B-B705-F6F948B94D55}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2150,7 +2138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2275,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2290,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2329,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2344,7 +2332,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,7 +2403,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2430,7 +2418,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2445,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2469,7 +2457,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2484,7 +2472,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2499,7 +2487,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2600,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2639,7 +2627,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2654,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,7 +2713,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2737,10 +2725,10 @@
         <v>42908</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2752,10 +2740,10 @@
         <v>73724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2779,7 +2767,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2788,13 +2776,13 @@
         <v>1184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2803,13 +2791,13 @@
         <v>1184</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,7 +2868,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2892,13 +2880,13 @@
         <v>55755</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -2907,13 +2895,13 @@
         <v>88171</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2943,13 +2931,13 @@
         <v>4983</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2958,13 +2946,13 @@
         <v>4983</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3044,16 +3032,16 @@
         <v>176</v>
       </c>
       <c r="I19" s="7">
-        <v>187959</v>
+        <v>187960</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>280</v>
@@ -3062,13 +3050,13 @@
         <v>302703</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3098,13 +3086,13 @@
         <v>6166</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -3113,13 +3101,13 @@
         <v>6166</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,7 +3134,7 @@
         <v>182</v>
       </c>
       <c r="I21" s="7">
-        <v>194125</v>
+        <v>194126</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -3175,7 +3163,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3196,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1E52AC-BBE6-4AAB-903C-EBDD547DDC64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB247C7-1459-4A4D-917F-F8B0C87EF0CB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3213,7 +3201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3475,10 +3463,10 @@
         <v>16548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3490,10 +3478,10 @@
         <v>19845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3505,10 +3493,10 @@
         <v>36393</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3526,13 +3514,13 @@
         <v>974</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3541,13 +3529,13 @@
         <v>905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3556,13 +3544,13 @@
         <v>1879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,10 +3618,10 @@
         <v>26634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -3648,7 +3636,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3660,10 +3648,10 @@
         <v>87811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3681,13 +3669,13 @@
         <v>1135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3702,7 +3690,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3711,13 +3699,13 @@
         <v>1135</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,10 +3773,10 @@
         <v>21072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3800,10 +3788,10 @@
         <v>51879</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -3815,13 +3803,13 @@
         <v>72952</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3824,13 @@
         <v>1022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3851,13 +3839,13 @@
         <v>2095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3866,13 +3854,13 @@
         <v>3117</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3928,13 @@
         <v>30563</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -3955,10 +3943,10 @@
         <v>48301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3970,13 +3958,13 @@
         <v>78865</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3979,13 @@
         <v>3470</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4006,13 +3994,13 @@
         <v>2825</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4021,13 +4009,13 @@
         <v>6295</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4083,13 @@
         <v>95612</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -4110,13 +4098,13 @@
         <v>183737</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>263</v>
@@ -4125,13 +4113,13 @@
         <v>279349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4134,13 @@
         <v>6601</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4161,13 +4149,13 @@
         <v>5826</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4176,13 +4164,13 @@
         <v>12427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4226,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35201F6-A54D-49BF-905F-5B6479132B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F631CE5-0586-43D2-B718-69ABD153B03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E60BCB6F-B21D-4235-8BD3-9A1A3919B0AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2AC5920B-0842-4F29-8939-3D3045485937}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="201">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,13 +115,13 @@
     <t>93,1%</t>
   </si>
   <si>
-    <t>71,43%</t>
+    <t>70,35%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>78,34%</t>
+    <t>77,61%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -130,13 +130,13 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>28,57%</t>
+    <t>29,65%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>21,66%</t>
+    <t>22,39%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -145,10 +145,10 @@
     <t>75,1%</t>
   </si>
   <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -157,19 +157,19 @@
     <t>90,2%</t>
   </si>
   <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -178,10 +178,10 @@
     <t>9,8%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -211,79 +211,85 @@
     <t>96,87%</t>
   </si>
   <si>
-    <t>85,59%</t>
+    <t>84,92%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
+    <t>91,71%</t>
+  </si>
+  <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>92,5%</t>
+    <t>91,11%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>14,41%</t>
+    <t>15,08%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
+    <t>8,29%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>7,5%</t>
+    <t>8,89%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>95,19%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -340,13 +346,13 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>87,63%</t>
+    <t>87,12%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>90,79%</t>
+    <t>91,69%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -355,13 +361,13 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>12,37%</t>
+    <t>12,88%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>9,21%</t>
+    <t>8,31%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -370,16 +376,13 @@
     <t>91,8%</t>
   </si>
   <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>83,45%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>88,84%</t>
+    <t>88,34%</t>
   </si>
   <si>
     <t>97,93%</t>
@@ -391,10 +394,7 @@
     <t>8,2%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>16,55%</t>
   </si>
   <si>
     <t>5,35%</t>
@@ -403,7 +403,7 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>11,16%</t>
+    <t>11,66%</t>
   </si>
   <si>
     <t>98,17%</t>
@@ -412,19 +412,19 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -433,19 +433,19 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
@@ -454,40 +454,40 @@
     <t>94,44%</t>
   </si>
   <si>
-    <t>76,42%</t>
+    <t>71,77%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>76,83%</t>
+    <t>76,02%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>83,92%</t>
+    <t>84,67%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>23,58%</t>
+    <t>28,23%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>23,17%</t>
+    <t>23,98%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
   <si>
     <t>96,7%</t>
@@ -496,10 +496,10 @@
     <t>98,72%</t>
   </si>
   <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>3,3%</t>
@@ -508,145 +508,139 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>7,09%</t>
+    <t>6,8%</t>
   </si>
   <si>
     <t>95,38%</t>
   </si>
   <si>
-    <t>80,14%</t>
+    <t>76,86%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>88,17%</t>
+    <t>87,66%</t>
   </si>
   <si>
     <t>95,9%</t>
   </si>
   <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>88,95%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>19,86%</t>
+    <t>23,14%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>11,83%</t>
+    <t>12,34%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>11,05%</t>
   </si>
   <si>
     <t>89,8%</t>
   </si>
   <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>80,95%</t>
+    <t>81,84%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>19,05%</t>
+    <t>18,16%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>86,73%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>92,56%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>13,27%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>7,44%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BE2095-93FD-42CF-A609-F98E44B8FD6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28415B4-8E0B-4830-BD93-D34C882B8DD1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1820,7 +1814,7 @@
         <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1832,10 +1826,10 @@
         <v>78250</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -1853,13 +1847,13 @@
         <v>882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1868,13 +1862,13 @@
         <v>881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1883,13 +1877,13 @@
         <v>1763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1951,13 @@
         <v>69528</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>126</v>
@@ -1972,10 +1966,10 @@
         <v>130438</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -1987,13 +1981,13 @@
         <v>199965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2002,13 @@
         <v>6695</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2023,13 +2017,13 @@
         <v>1839</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2038,13 +2032,13 @@
         <v>8534</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,7 +2094,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C26C0F-FABF-4A6B-B705-F6F948B94D55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243A4303-6A11-41C5-BFA8-5D8BB92345AA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2138,7 +2132,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2263,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2278,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2317,7 +2311,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2332,7 +2326,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,7 +2397,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2418,7 +2412,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2433,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2457,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2472,7 +2466,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2487,7 +2481,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2588,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2627,7 +2621,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2642,7 +2636,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,7 +2707,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2725,10 +2719,10 @@
         <v>42908</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2740,10 +2734,10 @@
         <v>73724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2767,7 +2761,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2776,13 +2770,13 @@
         <v>1184</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2791,13 +2785,13 @@
         <v>1184</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,7 +2862,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -2880,13 +2874,13 @@
         <v>55755</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -2895,13 +2889,13 @@
         <v>88171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,7 +2916,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2931,10 +2925,10 @@
         <v>4983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>118</v>
@@ -3163,7 +3157,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3184,7 +3178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB247C7-1459-4A4D-917F-F8B0C87EF0CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C19EC8A-058E-41AB-A829-25A498ED4DEC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3618,7 +3612,7 @@
         <v>26634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>149</v>
@@ -3669,7 +3663,7 @@
         <v>1135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
@@ -3809,7 +3803,7 @@
         <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3818,13 @@
         <v>1022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3839,13 +3833,13 @@
         <v>2095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3854,13 +3848,13 @@
         <v>3117</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3922,13 @@
         <v>30563</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -3943,10 +3937,10 @@
         <v>48301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3958,13 +3952,13 @@
         <v>78865</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3973,13 @@
         <v>3470</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3994,13 +3988,13 @@
         <v>2825</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4009,13 +4003,13 @@
         <v>6295</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4077,13 @@
         <v>95612</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -4098,13 +4092,13 @@
         <v>183737</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>263</v>
@@ -4113,13 +4107,13 @@
         <v>279349</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4128,13 @@
         <v>6601</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4149,13 +4143,13 @@
         <v>5826</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -4164,13 +4158,13 @@
         <v>12427</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,7 +4220,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F631CE5-0586-43D2-B718-69ABD153B03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3453AB26-ABCD-4E62-A593-30488012B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2AC5920B-0842-4F29-8939-3D3045485937}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2AF3A9CF-6BC9-4925-8DFD-3EC86DC48941}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="188">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,16 +76,22 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>43,07%</t>
+    <t>84,31%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -97,46 +103,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -184,7 +163,7 @@
     <t>21,54%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -298,34 +277,22 @@
     <t>Porcentajes de medicamentos para la alergia recetados en 2012 (Tasa respuesta: 4,4%)</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>96,52%</t>
@@ -370,9 +337,6 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>94,04%</t>
-  </si>
-  <si>
     <t>91,8%</t>
   </si>
   <si>
@@ -388,9 +352,6 @@
     <t>97,93%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
     <t>8,2%</t>
   </si>
   <si>
@@ -451,40 +412,40 @@
     <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
   </si>
   <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>80,08%</t>
@@ -1052,8 +1013,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28415B4-8E0B-4830-BD93-D34C882B8DD1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881F13AA-BB29-44E1-9437-C4C588DCE661}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1170,10 +1131,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>2357</v>
+        <v>11022</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1185,40 +1146,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>1001</v>
+        <v>13938</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>3358</v>
+        <v>24961</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1227,43 +1188,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>958</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1272,10 +1233,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>2357</v>
+        <v>11022</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1287,10 +1248,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>1001</v>
+        <v>14896</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1302,10 +1263,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="N6" s="7">
-        <v>3358</v>
+        <v>25919</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1319,106 +1280,106 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>8665</v>
+        <v>17537</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
+        <v>33</v>
+      </c>
+      <c r="I7" s="7">
+        <v>35963</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7">
-        <v>12937</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>21603</v>
+        <v>53500</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5813</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>958</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>958</v>
+        <v>5813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,10 +1388,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7">
-        <v>8665</v>
+        <v>23350</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1442,10 +1403,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>13895</v>
+        <v>35963</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1457,10 +1418,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N9" s="7">
-        <v>22561</v>
+        <v>59313</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1474,76 +1435,76 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>17537</v>
+        <v>13714</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>35963</v>
+        <v>29541</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>53500</v>
+        <v>43256</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>5813</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1552,25 +1513,25 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>5813</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>47</v>
@@ -1582,10 +1543,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>23350</v>
+        <v>13714</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1597,10 +1558,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I12" s="7">
-        <v>35963</v>
+        <v>29541</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1612,10 +1573,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N12" s="7">
-        <v>59313</v>
+        <v>43256</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1635,100 +1596,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>13714</v>
+        <v>27255</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
         <v>49</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>30</v>
-      </c>
       <c r="I13" s="7">
-        <v>29541</v>
+        <v>50995</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>43256</v>
+        <v>78250</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,10 +1698,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
-        <v>13714</v>
+        <v>28137</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1752,10 +1713,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I15" s="7">
-        <v>29541</v>
+        <v>51876</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1767,10 +1728,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="N15" s="7">
-        <v>43256</v>
+        <v>80013</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1784,106 +1745,106 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>27255</v>
+        <v>69528</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="I16" s="7">
-        <v>50995</v>
+        <v>130438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="N16" s="7">
-        <v>78250</v>
+        <v>199965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>882</v>
+        <v>6695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>881</v>
+        <v>1839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>1763</v>
+        <v>8534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,10 +1853,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7">
-        <v>28137</v>
+        <v>76223</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1907,10 +1868,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="I18" s="7">
-        <v>51876</v>
+        <v>132277</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1922,10 +1883,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="N18" s="7">
-        <v>80013</v>
+        <v>208499</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1938,171 +1899,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7">
-        <v>69528</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="7">
-        <v>126</v>
-      </c>
-      <c r="I19" s="7">
-        <v>130438</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>193</v>
-      </c>
-      <c r="N19" s="7">
-        <v>199965</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7">
-        <v>6695</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1839</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8534</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>72</v>
-      </c>
-      <c r="D21" s="7">
-        <v>76223</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>128</v>
-      </c>
-      <c r="I21" s="7">
-        <v>132277</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>200</v>
-      </c>
-      <c r="N21" s="7">
-        <v>208499</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2115,8 +1920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243A4303-6A11-41C5-BFA8-5D8BB92345AA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A4B7D8-956C-4A55-BFA7-840AC0145CBC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2132,7 +1937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2233,46 +2038,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>2670</v>
+        <v>14925</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>6270</v>
+        <v>31170</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>8941</v>
+        <v>46095</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2281,7 +2086,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2290,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2305,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2320,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,10 +2140,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>2670</v>
+        <v>14925</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2350,10 +2155,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>6270</v>
+        <v>31170</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2365,10 +2170,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>8941</v>
+        <v>46095</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2382,52 +2187,52 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>12255</v>
+        <v>36587</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I7" s="7">
-        <v>24899</v>
+        <v>58126</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="N7" s="7">
-        <v>37154</v>
+        <v>94713</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2436,7 +2241,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2445,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2460,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2475,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,10 +2295,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>12255</v>
+        <v>36587</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2505,10 +2310,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I9" s="7">
-        <v>24899</v>
+        <v>58126</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2520,10 +2325,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="N9" s="7">
-        <v>37154</v>
+        <v>94713</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2537,61 +2342,61 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>36587</v>
+        <v>30816</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>58126</v>
+        <v>42908</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>94713</v>
+        <v>73724</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2600,43 +2405,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1184</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,10 +2450,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>36587</v>
+        <v>30816</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2660,10 +2465,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7">
-        <v>58126</v>
+        <v>44092</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2675,10 +2480,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7">
-        <v>94713</v>
+        <v>74908</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2698,55 +2503,55 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>30816</v>
+        <v>32416</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>53</v>
+      </c>
+      <c r="I13" s="7">
+        <v>55755</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7">
-        <v>42908</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="7">
+        <v>84</v>
+      </c>
+      <c r="N13" s="7">
+        <v>88171</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>64</v>
-      </c>
-      <c r="N13" s="7">
-        <v>73724</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2755,43 +2560,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4983</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1184</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4983</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1184</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,10 +2605,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>30816</v>
+        <v>32416</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2815,10 +2620,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I15" s="7">
-        <v>44092</v>
+        <v>60738</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2830,10 +2635,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="N15" s="7">
-        <v>74908</v>
+        <v>93154</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2847,46 +2652,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>32416</v>
+        <v>114743</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>176</v>
+      </c>
+      <c r="I16" s="7">
+        <v>187959</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>53</v>
-      </c>
-      <c r="I16" s="7">
-        <v>55755</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="M16" s="7">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="N16" s="7">
-        <v>88171</v>
+        <v>302703</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -2901,7 +2706,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2910,43 +2715,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>4983</v>
+        <v>6166</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>4983</v>
+        <v>6166</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,10 +2760,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="D18" s="7">
-        <v>32416</v>
+        <v>114743</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2970,10 +2775,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>58</v>
+        <v>182</v>
       </c>
       <c r="I18" s="7">
-        <v>60738</v>
+        <v>194125</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2985,10 +2790,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="N18" s="7">
-        <v>93154</v>
+        <v>308869</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3001,171 +2806,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>104</v>
-      </c>
-      <c r="D19" s="7">
-        <v>114743</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>176</v>
-      </c>
-      <c r="I19" s="7">
-        <v>187960</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="7">
-        <v>280</v>
-      </c>
-      <c r="N19" s="7">
-        <v>302703</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="7">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6166</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6166</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>104</v>
-      </c>
-      <c r="D21" s="7">
-        <v>114743</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>182</v>
-      </c>
-      <c r="I21" s="7">
-        <v>194126</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>286</v>
-      </c>
-      <c r="N21" s="7">
-        <v>308869</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3178,8 +2827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C19EC8A-058E-41AB-A829-25A498ED4DEC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A297B566-CF4A-4EF2-B0FA-CB916AB07168}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3195,7 +2844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3296,100 +2945,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>794</v>
+        <v>17342</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>2537</v>
+        <v>22382</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>3331</v>
+        <v>39723</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1879</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>794</v>
+        <v>18316</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3413,10 +3062,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>2537</v>
+        <v>23287</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3428,10 +3077,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>3331</v>
+        <v>41602</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3445,52 +3094,52 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>16548</v>
+        <v>26634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>19845</v>
+        <v>61176</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>81</v>
+      </c>
+      <c r="N7" s="7">
+        <v>87811</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>35</v>
-      </c>
-      <c r="N7" s="7">
-        <v>36393</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3499,52 +3148,52 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>974</v>
+        <v>1135</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1135</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>905</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1879</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,10 +3202,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7">
-        <v>17522</v>
+        <v>27769</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -3568,10 +3217,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7">
-        <v>20750</v>
+        <v>61176</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -3583,10 +3232,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N9" s="7">
-        <v>38272</v>
+        <v>88946</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -3600,106 +3249,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>26634</v>
+        <v>21072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>61176</v>
+        <v>51879</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N10" s="7">
-        <v>87811</v>
+        <v>72952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1135</v>
+        <v>1022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2095</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3117</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1135</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,10 +3357,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>27769</v>
+        <v>22094</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3723,10 +3372,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>61176</v>
+        <v>53974</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3738,10 +3387,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N12" s="7">
-        <v>88946</v>
+        <v>76069</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3761,25 +3410,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>21072</v>
+        <v>30563</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>51879</v>
+        <v>48301</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>159</v>
@@ -3791,10 +3440,10 @@
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>72952</v>
+        <v>78865</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>161</v>
@@ -3803,58 +3452,58 @@
         <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1022</v>
+        <v>3470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>2095</v>
+        <v>2825</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>3117</v>
+        <v>6295</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,10 +3512,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>22094</v>
+        <v>34033</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3878,10 +3527,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>53974</v>
+        <v>51126</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3893,10 +3542,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="N15" s="7">
-        <v>76069</v>
+        <v>85160</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3910,106 +3559,106 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>30563</v>
+        <v>95612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="7">
         <v>171</v>
       </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
       <c r="I16" s="7">
-        <v>48301</v>
+        <v>183737</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="N16" s="7">
-        <v>78865</v>
+        <v>279349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>3470</v>
+        <v>6601</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>2825</v>
+        <v>5826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>6295</v>
+        <v>12427</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,10 +3667,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D18" s="7">
-        <v>34033</v>
+        <v>102213</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -4033,10 +3682,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="I18" s="7">
-        <v>51126</v>
+        <v>189563</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4048,10 +3697,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="N18" s="7">
-        <v>85160</v>
+        <v>291776</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4064,171 +3713,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>92</v>
-      </c>
-      <c r="D19" s="7">
-        <v>95612</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H19" s="7">
-        <v>171</v>
-      </c>
-      <c r="I19" s="7">
-        <v>183737</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="7">
-        <v>263</v>
-      </c>
-      <c r="N19" s="7">
-        <v>279349</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7">
-        <v>6601</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5826</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M20" s="7">
-        <v>11</v>
-      </c>
-      <c r="N20" s="7">
-        <v>12427</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>98</v>
-      </c>
-      <c r="D21" s="7">
-        <v>102213</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>176</v>
-      </c>
-      <c r="I21" s="7">
-        <v>189563</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>274</v>
-      </c>
-      <c r="N21" s="7">
-        <v>291776</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>84</v>
+      <c r="A19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
